--- a/settings/data/Couple.xlsx
+++ b/settings/data/Couple.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="55">
   <si>
     <t>string</t>
   </si>
@@ -37,10 +37,10 @@
     <t>注释</t>
   </si>
   <si>
-    <t>array_string</t>
-  </si>
-  <si>
-    <t>array_float</t>
+    <t>array_str</t>
+  </si>
+  <si>
+    <t>array</t>
   </si>
   <si>
     <t>羁绊ID</t>
@@ -105,6 +105,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t xml:space="preserve">释放招式时机
 </t>
     </r>
@@ -156,6 +163,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t xml:space="preserve">获得Buff时机
 </t>
     </r>
@@ -197,6 +211,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t xml:space="preserve">Buff数值系数
 </t>
     </r>
@@ -233,7 +254,7 @@
     <t>buff_value_factor</t>
   </si>
   <si>
-    <t>"cp_reimu_marisa"</t>
+    <t>cp_reimu_marisa</t>
   </si>
   <si>
     <t>灵梦×魔理沙</t>
@@ -245,16 +266,13 @@
     <t>marisa</t>
   </si>
   <si>
-    <t>[rou_reimu_marisa1_base,rou_reimu_marisa2_base]</t>
-  </si>
-  <si>
-    <t>[hurt]</t>
-  </si>
-  <si>
-    <t>[]</t>
-  </si>
-  <si>
-    <t>"cp_reimu_sanae"</t>
+    <t>rou_reimu_marisa1_base|rou_reimu_marisa2_base</t>
+  </si>
+  <si>
+    <t>hurt</t>
+  </si>
+  <si>
+    <t>cp_reimu_sanae</t>
   </si>
   <si>
     <t>灵梦×早苗</t>
@@ -266,7 +284,7 @@
     <t>Attack</t>
   </si>
   <si>
-    <t>"cp_reimu_misumaru"</t>
+    <t>cp_reimu_misumaru</t>
   </si>
   <si>
     <t>灵梦×魅须丸</t>
@@ -275,7 +293,7 @@
     <t>misumaru</t>
   </si>
   <si>
-    <t>"cp_marisa_alice"</t>
+    <t>cp_marisa_alice</t>
   </si>
   <si>
     <t>魔理沙×爱丽丝</t>
@@ -287,7 +305,7 @@
     <t>Summoned</t>
   </si>
   <si>
-    <t>"cp_marisa_patchouli"</t>
+    <t>cp_marisa_patchouli</t>
   </si>
   <si>
     <t>魔理沙×帕秋莉</t>
@@ -296,25 +314,25 @@
     <t>patchouli</t>
   </si>
   <si>
-    <t>"cp_alice_patchouli"</t>
+    <t>cp_alice_patchouli</t>
   </si>
   <si>
     <t>爱丽丝×帕秋莉</t>
   </si>
   <si>
-    <t>"cp_marisa_alice_patchouli"</t>
+    <t>cp_marisa_alice_patchouli</t>
   </si>
   <si>
     <t>三魔女</t>
   </si>
   <si>
-    <t>[buff_mana_cost_forever]</t>
-  </si>
-  <si>
-    <t>[getting]</t>
-  </si>
-  <si>
-    <t>"cp_marisa_narumi"</t>
+    <t>buff_mana_cost_forever</t>
+  </si>
+  <si>
+    <t>getting</t>
+  </si>
+  <si>
+    <t>cp_marisa_narumi</t>
   </si>
   <si>
     <t>魔理沙×成美</t>
@@ -323,13 +341,13 @@
     <t>narumi</t>
   </si>
   <si>
-    <t>[buff_hp_disposable]</t>
-  </si>
-  <si>
-    <t>[sc]</t>
-  </si>
-  <si>
-    <t>[atkdep_mana_multiply]</t>
+    <t>buff_hp_disposable</t>
+  </si>
+  <si>
+    <t>sc</t>
+  </si>
+  <si>
+    <t>atkdep_mana_multiply</t>
   </si>
 </sst>
 </file>
@@ -510,14 +528,14 @@
     </font>
     <font>
       <sz val="10"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
       <color theme="4"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -973,12 +991,9 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1309,11 +1324,11 @@
   <dimension ref="A1:S11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="G3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="I3" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="G22" sqref="G22"/>
+      <selection pane="bottomRight" activeCell="N28" sqref="N28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
@@ -1335,406 +1350,340 @@
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" spans="1:19">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="H1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="I1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="J1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="K1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="L1" s="3" t="s">
+      <c r="L1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="M1" s="3"/>
-      <c r="N1" s="3"/>
-      <c r="O1" s="3"/>
-      <c r="P1" s="3"/>
-      <c r="Q1" s="3"/>
-      <c r="R1" s="3"/>
-      <c r="S1" s="3"/>
+      <c r="M1" s="2"/>
+      <c r="N1" s="2"/>
+      <c r="O1" s="2"/>
+      <c r="P1" s="2"/>
+      <c r="Q1" s="2"/>
+      <c r="R1" s="2"/>
+      <c r="S1" s="2"/>
     </row>
-    <row r="2" s="2" customFormat="1" ht="86" spans="1:17">
-      <c r="A2" s="4" t="s">
+    <row r="2" s="1" customFormat="1" ht="86" spans="1:17">
+      <c r="A2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="D2" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="E2" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="F2" s="5" t="s">
+      <c r="F2" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="G2" s="5" t="s">
+      <c r="G2" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="H2" s="5" t="s">
+      <c r="H2" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="I2" s="5" t="s">
+      <c r="I2" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="J2" s="5" t="s">
+      <c r="J2" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="K2" s="5" t="s">
+      <c r="K2" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="L2" s="5" t="s">
+      <c r="L2" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="M2" s="5"/>
-      <c r="N2" s="5"/>
-      <c r="O2" s="5"/>
-      <c r="P2" s="5"/>
-      <c r="Q2" s="5"/>
+      <c r="M2" s="4"/>
+      <c r="N2" s="4"/>
+      <c r="O2" s="4"/>
+      <c r="P2" s="4"/>
+      <c r="Q2" s="4"/>
     </row>
     <row r="3" s="1" customFormat="1" spans="1:19">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B3" s="3"/>
-      <c r="C3" s="3"/>
-      <c r="D3" s="3"/>
-      <c r="E3" s="3"/>
-      <c r="F3" s="3"/>
-      <c r="G3" s="3" t="s">
+      <c r="B3" s="2"/>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="H3" s="3" t="s">
+      <c r="H3" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="I3" s="3" t="s">
+      <c r="I3" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="J3" s="3" t="s">
+      <c r="J3" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="K3" s="3" t="s">
+      <c r="K3" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="L3" s="3" t="s">
+      <c r="L3" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="M3" s="3"/>
-      <c r="N3" s="3"/>
-      <c r="O3" s="3"/>
-      <c r="P3" s="3"/>
-      <c r="Q3" s="3"/>
-      <c r="R3" s="3"/>
-      <c r="S3" s="3"/>
+      <c r="M3" s="2"/>
+      <c r="N3" s="2"/>
+      <c r="O3" s="2"/>
+      <c r="P3" s="2"/>
+      <c r="Q3" s="2"/>
+      <c r="R3" s="2"/>
+      <c r="S3" s="2"/>
     </row>
     <row r="4" spans="1:19">
       <c r="A4" t="s">
         <v>23</v>
       </c>
-      <c r="B4" s="6" t="s">
+      <c r="B4" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="C4" s="6" t="s">
+      <c r="C4" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="D4" s="6" t="s">
+      <c r="D4" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="E4" s="6"/>
-      <c r="F4" s="6"/>
-      <c r="G4" s="6" t="s">
+      <c r="E4" s="5"/>
+      <c r="F4" s="5"/>
+      <c r="G4" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="H4" s="6" t="s">
+      <c r="H4" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="I4" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="J4" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="K4" s="6" t="s">
-        <v>29</v>
-      </c>
+      <c r="I4" s="5"/>
+      <c r="J4" s="5"/>
+      <c r="K4" s="5"/>
       <c r="L4">
         <v>1</v>
       </c>
-      <c r="M4" s="6"/>
-      <c r="N4" s="6"/>
-      <c r="O4" s="6"/>
-      <c r="P4" s="6"/>
-      <c r="Q4" s="6"/>
-      <c r="R4" s="6"/>
-      <c r="S4" s="6"/>
+      <c r="M4" s="5"/>
+      <c r="N4" s="5"/>
+      <c r="O4" s="5"/>
+      <c r="P4" s="5"/>
+      <c r="Q4" s="5"/>
+      <c r="R4" s="5"/>
+      <c r="S4" s="5"/>
     </row>
     <row r="5" spans="1:12">
       <c r="A5" t="s">
+        <v>29</v>
+      </c>
+      <c r="B5" s="5" t="s">
         <v>30</v>
-      </c>
-      <c r="B5" s="6" t="s">
-        <v>31</v>
       </c>
       <c r="C5" t="s">
         <v>25</v>
       </c>
       <c r="D5" t="s">
+        <v>31</v>
+      </c>
+      <c r="F5" t="s">
         <v>32</v>
       </c>
-      <c r="F5" t="s">
-        <v>33</v>
-      </c>
-      <c r="G5" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="H5" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="I5" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="J5" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="K5" s="6" t="s">
-        <v>29</v>
-      </c>
+      <c r="G5" s="5"/>
+      <c r="H5" s="5"/>
+      <c r="I5" s="5"/>
+      <c r="J5" s="5"/>
+      <c r="K5" s="5"/>
       <c r="L5">
         <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:12">
       <c r="A6" t="s">
+        <v>33</v>
+      </c>
+      <c r="B6" t="s">
         <v>34</v>
-      </c>
-      <c r="B6" t="s">
-        <v>35</v>
       </c>
       <c r="C6" t="s">
         <v>25</v>
       </c>
       <c r="D6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F6" t="s">
-        <v>33</v>
-      </c>
-      <c r="G6" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="H6" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="I6" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="J6" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="K6" s="6" t="s">
-        <v>29</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="G6" s="5"/>
+      <c r="H6" s="5"/>
+      <c r="I6" s="5"/>
+      <c r="J6" s="5"/>
+      <c r="K6" s="5"/>
       <c r="L6">
         <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:12">
       <c r="A7" t="s">
+        <v>36</v>
+      </c>
+      <c r="B7" t="s">
         <v>37</v>
-      </c>
-      <c r="B7" t="s">
-        <v>38</v>
       </c>
       <c r="C7" t="s">
         <v>26</v>
       </c>
       <c r="D7" t="s">
+        <v>38</v>
+      </c>
+      <c r="F7" t="s">
         <v>39</v>
       </c>
-      <c r="F7" t="s">
-        <v>40</v>
-      </c>
-      <c r="G7" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="H7" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="I7" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="J7" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="K7" s="6" t="s">
-        <v>29</v>
-      </c>
+      <c r="G7" s="5"/>
+      <c r="H7" s="5"/>
+      <c r="I7" s="5"/>
+      <c r="J7" s="5"/>
+      <c r="K7" s="5"/>
       <c r="L7">
         <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:12">
       <c r="A8" t="s">
+        <v>40</v>
+      </c>
+      <c r="B8" t="s">
         <v>41</v>
-      </c>
-      <c r="B8" t="s">
-        <v>42</v>
       </c>
       <c r="C8" t="s">
         <v>26</v>
       </c>
       <c r="D8" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F8" t="s">
-        <v>33</v>
-      </c>
-      <c r="G8" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="H8" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="I8" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="J8" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="K8" s="6" t="s">
-        <v>29</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="G8" s="5"/>
+      <c r="H8" s="5"/>
+      <c r="I8" s="5"/>
+      <c r="J8" s="5"/>
+      <c r="K8" s="5"/>
       <c r="L8">
         <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:12">
       <c r="A9" t="s">
+        <v>43</v>
+      </c>
+      <c r="B9" t="s">
         <v>44</v>
       </c>
-      <c r="B9" t="s">
-        <v>45</v>
-      </c>
       <c r="C9" t="s">
+        <v>38</v>
+      </c>
+      <c r="D9" t="s">
+        <v>42</v>
+      </c>
+      <c r="F9" t="s">
         <v>39</v>
       </c>
-      <c r="D9" t="s">
-        <v>43</v>
-      </c>
-      <c r="F9" t="s">
-        <v>40</v>
-      </c>
-      <c r="G9" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="H9" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="I9" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="J9" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="K9" s="6" t="s">
-        <v>29</v>
-      </c>
+      <c r="G9" s="5"/>
+      <c r="H9" s="5"/>
+      <c r="I9" s="5"/>
+      <c r="J9" s="5"/>
+      <c r="K9" s="5"/>
       <c r="L9">
         <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:12">
       <c r="A10" t="s">
+        <v>45</v>
+      </c>
+      <c r="B10" t="s">
         <v>46</v>
-      </c>
-      <c r="B10" t="s">
-        <v>47</v>
       </c>
       <c r="C10" t="s">
         <v>26</v>
       </c>
       <c r="D10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E10" t="s">
-        <v>43</v>
-      </c>
-      <c r="G10" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="H10" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="I10" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="G10" s="5"/>
+      <c r="H10" s="5"/>
+      <c r="I10" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="J10" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="J10" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="K10" s="6" t="s">
-        <v>29</v>
-      </c>
+      <c r="K10" s="5"/>
       <c r="L10">
         <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:12">
       <c r="A11" t="s">
+        <v>49</v>
+      </c>
+      <c r="B11" t="s">
         <v>50</v>
-      </c>
-      <c r="B11" t="s">
-        <v>51</v>
       </c>
       <c r="C11" t="s">
         <v>26</v>
       </c>
       <c r="D11" t="s">
+        <v>51</v>
+      </c>
+      <c r="G11" s="5"/>
+      <c r="H11" s="5"/>
+      <c r="I11" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="G11" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="H11" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="I11" s="6" t="s">
+      <c r="J11" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="J11" s="6" t="s">
+      <c r="K11" s="5" t="s">
         <v>54</v>
-      </c>
-      <c r="K11" s="6" t="s">
-        <v>55</v>
       </c>
       <c r="L11">
         <v>0.08</v>

--- a/settings/data/Couple.xlsx
+++ b/settings/data/Couple.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28429"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nep\Desktop\touhou_survivors\settings\data\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C80EC947-A8CF-42C0-B854-CE0B9DD83192}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2685" yWindow="5025" windowWidth="31980" windowHeight="15345" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="24750" windowHeight="12080"/>
   </bookViews>
   <sheets>
     <sheet name="Couple" sheetId="1" r:id="rId1"/>
@@ -33,24 +27,27 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="61">
   <si>
     <t>string</t>
   </si>
   <si>
+    <t>array_str</t>
+  </si>
+  <si>
+    <t>array</t>
+  </si>
+  <si>
+    <t>羁绊ID</t>
+  </si>
+  <si>
+    <t>中文名</t>
+  </si>
+  <si>
     <t>注释</t>
   </si>
   <si>
-    <t>array_str</t>
-  </si>
-  <si>
-    <t>array</t>
-  </si>
-  <si>
-    <t>羁绊ID</t>
-  </si>
-  <si>
-    <t>中文名</t>
+    <t>羁绊成员</t>
   </si>
   <si>
     <r>
@@ -208,6 +205,12 @@
     <t>id</t>
   </si>
   <si>
+    <t>*</t>
+  </si>
+  <si>
+    <t>partment</t>
+  </si>
+  <si>
     <t>creating_routine</t>
   </si>
   <si>
@@ -232,6 +235,15 @@
     <t>灵梦×魔理沙</t>
   </si>
   <si>
+    <t>受击时一定范围消弹，击退周围小范围的敌人。</t>
+  </si>
+  <si>
+    <t>ski_reimu|sc_marisa</t>
+  </si>
+  <si>
+    <t>rou_reimu_marisa1|rou_reimu_marisa2</t>
+  </si>
+  <si>
     <t>hurt</t>
   </si>
   <si>
@@ -241,36 +253,72 @@
     <t>灵梦×早苗</t>
   </si>
   <si>
+    <t>灵梦的符札有概率定身敌人一小段时间。</t>
+  </si>
+  <si>
+    <t>ski_reimu|ski_sanae</t>
+  </si>
+  <si>
     <t>cp_reimu_misumaru</t>
   </si>
   <si>
     <t>灵梦×魅须丸</t>
   </si>
   <si>
+    <t>魅须丸的阴阳玉因到达时限而消失时会爆炸。</t>
+  </si>
+  <si>
+    <t>ski_reimu|ski_misumaru</t>
+  </si>
+  <si>
     <t>cp_marisa_alice</t>
   </si>
   <si>
     <t>魔理沙×爱丽丝</t>
   </si>
   <si>
+    <t>释放符卡时，所有人偶会发射小型魔炮，会瞄准自机前方一定距离，符力消耗越高持续时间越长。</t>
+  </si>
+  <si>
+    <t>sc_marisa|ski_alice</t>
+  </si>
+  <si>
     <t>cp_marisa_patchouli</t>
   </si>
   <si>
     <t>魔理沙×帕秋莉</t>
   </si>
   <si>
+    <t>魔炮消掉弹幕和击破敌人时会掉落增加符力的道具。</t>
+  </si>
+  <si>
+    <t>sc_marisa|psv_patchouli</t>
+  </si>
+  <si>
     <t>cp_alice_patchouli</t>
   </si>
   <si>
     <t>爱丽丝×帕秋莉</t>
   </si>
   <si>
+    <t>爱丽丝的人偶生成时会释放日符，造成AOE伤害；摧毁时会释放月符，生成回复符力的区域。</t>
+  </si>
+  <si>
+    <t>ski_alice|psv_patchouli</t>
+  </si>
+  <si>
     <t>cp_marisa_alice_patchouli</t>
   </si>
   <si>
     <t>三魔女</t>
   </si>
   <si>
+    <t>符卡的符力消耗减半。</t>
+  </si>
+  <si>
+    <t>ski_alice|psv_patchouli|sc_marisa</t>
+  </si>
+  <si>
     <t>buff_mana_cost_forever</t>
   </si>
   <si>
@@ -283,6 +331,12 @@
     <t>魔理沙×成美</t>
   </si>
   <si>
+    <t>释放符卡时，回复等同于消耗符力的1%的血量。</t>
+  </si>
+  <si>
+    <t>sc_marisa|psv_narumi</t>
+  </si>
+  <si>
     <t>buff_hp_disposable</t>
   </si>
   <si>
@@ -290,61 +344,26 @@
   </si>
   <si>
     <t>atkdep_mana_multiply</t>
-  </si>
-  <si>
-    <t>array_str</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>羁绊成员1</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>partment</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>ski_reimu|sc_marisa</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>ski_reimu|ski_sanae</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>ski_reimu|ski_misumaru</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>sc_marisa|ski_alice</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>sc_marisa|psv_patchouli</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>ski_alice|psv_patchouli</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>ski_alice|psv_patchouli|sc_marisa</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>sc_marisa|psv_narumi</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>rou_reimu_marisa1|rou_reimu_marisa2</t>
-    <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
+  <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="26">
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -360,6 +379,157 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="10"/>
       <color theme="9"/>
       <name val="宋体"/>
@@ -380,38 +550,202 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="16"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -419,9 +753,251 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -435,30 +1011,74 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
+    <cellStyle name="货币" xfId="2" builtinId="4"/>
+    <cellStyle name="百分比" xfId="3" builtinId="5"/>
+    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
+    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
+    <cellStyle name="超链接" xfId="6" builtinId="8"/>
+    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
+    <cellStyle name="注释" xfId="8" builtinId="10"/>
+    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
+    <cellStyle name="标题" xfId="10" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
+    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="输入" xfId="16" builtinId="20"/>
+    <cellStyle name="输出" xfId="17" builtinId="21"/>
+    <cellStyle name="计算" xfId="18" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
+    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
+    <cellStyle name="汇总" xfId="21" builtinId="25"/>
+    <cellStyle name="好" xfId="22" builtinId="26"/>
+    <cellStyle name="差" xfId="23" builtinId="27"/>
+    <cellStyle name="适中" xfId="24" builtinId="28"/>
+    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
+    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
+    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
+    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
+    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -708,263 +1328,301 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N11"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:O11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
+      <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="D4" sqref="D4"/>
+      <selection pane="bottomRight" activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
   <cols>
-    <col min="1" max="1" width="30.875" customWidth="1"/>
-    <col min="2" max="2" width="16.25" customWidth="1"/>
-    <col min="3" max="3" width="30.375" customWidth="1"/>
-    <col min="4" max="4" width="53.375" customWidth="1"/>
-    <col min="5" max="5" width="26.375" customWidth="1"/>
-    <col min="6" max="6" width="27.5" customWidth="1"/>
-    <col min="7" max="7" width="21.5" customWidth="1"/>
-    <col min="8" max="8" width="27.5" customWidth="1"/>
-    <col min="9" max="9" width="23.25" customWidth="1"/>
-    <col min="10" max="10" width="13.75" customWidth="1"/>
-    <col min="11" max="11" width="20.5" customWidth="1"/>
-    <col min="12" max="13" width="21.625" customWidth="1"/>
-    <col min="14" max="14" width="21.5" customWidth="1"/>
+    <col min="1" max="1" width="30.8727272727273" customWidth="1"/>
+    <col min="2" max="2" width="16.2545454545455" customWidth="1"/>
+    <col min="3" max="3" width="87.2727272727273" customWidth="1"/>
+    <col min="4" max="4" width="37.6363636363636" customWidth="1"/>
+    <col min="5" max="5" width="53.3727272727273" customWidth="1"/>
+    <col min="6" max="6" width="26.3727272727273" customWidth="1"/>
+    <col min="7" max="7" width="27.5" customWidth="1"/>
+    <col min="8" max="8" width="21.5" customWidth="1"/>
+    <col min="9" max="9" width="27.5" customWidth="1"/>
+    <col min="10" max="10" width="23.2545454545455" customWidth="1"/>
+    <col min="11" max="11" width="13.7545454545455" customWidth="1"/>
+    <col min="12" max="12" width="20.5" customWidth="1"/>
+    <col min="13" max="14" width="21.6272727272727" customWidth="1"/>
+    <col min="15" max="15" width="21.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="1" s="1" customFormat="1" spans="1:10">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="E1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" s="1" customFormat="1" ht="86" spans="1:15">
+      <c r="A2" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="I2" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="J2" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="K2" s="4"/>
+      <c r="L2" s="4"/>
+      <c r="M2" s="4"/>
+      <c r="N2" s="4"/>
+      <c r="O2" s="4"/>
+    </row>
+    <row r="3" s="1" customFormat="1" spans="1:10">
+      <c r="A3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
+      <c r="A4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="F4" t="s">
+        <v>27</v>
+      </c>
+      <c r="J4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
+      <c r="A5" t="s">
+        <v>28</v>
+      </c>
+      <c r="B5" t="s">
+        <v>29</v>
+      </c>
+      <c r="C5" t="s">
+        <v>30</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="J5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
+      <c r="A6" t="s">
+        <v>32</v>
+      </c>
+      <c r="B6" t="s">
+        <v>33</v>
+      </c>
+      <c r="C6" t="s">
+        <v>34</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="J6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
+      <c r="A7" t="s">
+        <v>36</v>
+      </c>
+      <c r="B7" t="s">
+        <v>37</v>
+      </c>
+      <c r="C7" t="s">
+        <v>38</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="J7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
+      <c r="A8" t="s">
+        <v>40</v>
+      </c>
+      <c r="B8" t="s">
         <v>41</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>3</v>
+      <c r="C8" t="s">
+        <v>42</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="J8">
+        <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:14" s="1" customFormat="1" ht="80.25" x14ac:dyDescent="0.15">
-      <c r="A2" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="H2" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="I2" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="J2" s="3"/>
-      <c r="K2" s="3"/>
-      <c r="L2" s="3"/>
-      <c r="M2" s="3"/>
-      <c r="N2" s="3"/>
+    <row r="9" spans="1:10">
+      <c r="A9" t="s">
+        <v>44</v>
+      </c>
+      <c r="B9" t="s">
+        <v>45</v>
+      </c>
+      <c r="C9" t="s">
+        <v>46</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="J9">
+        <v>1</v>
+      </c>
     </row>
-    <row r="3" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>18</v>
+    <row r="10" spans="1:10">
+      <c r="A10" t="s">
+        <v>48</v>
+      </c>
+      <c r="B10" t="s">
+        <v>49</v>
+      </c>
+      <c r="C10" t="s">
+        <v>50</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="G10" t="s">
+        <v>52</v>
+      </c>
+      <c r="H10" t="s">
+        <v>53</v>
+      </c>
+      <c r="J10">
+        <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A4" t="s">
-        <v>19</v>
-      </c>
-      <c r="B4" t="s">
-        <v>20</v>
-      </c>
-      <c r="C4" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="D4" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="E4" t="s">
-        <v>21</v>
-      </c>
-      <c r="I4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A5" t="s">
-        <v>22</v>
-      </c>
-      <c r="B5" t="s">
-        <v>23</v>
-      </c>
-      <c r="C5" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="I5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A6" t="s">
-        <v>24</v>
-      </c>
-      <c r="B6" t="s">
-        <v>25</v>
-      </c>
-      <c r="C6" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="I6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A7" t="s">
-        <v>26</v>
-      </c>
-      <c r="B7" t="s">
-        <v>27</v>
-      </c>
-      <c r="C7" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="I7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A8" t="s">
-        <v>28</v>
-      </c>
-      <c r="B8" t="s">
-        <v>29</v>
-      </c>
-      <c r="C8" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="I8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A9" t="s">
-        <v>30</v>
-      </c>
-      <c r="B9" t="s">
-        <v>31</v>
-      </c>
-      <c r="C9" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="I9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A10" t="s">
-        <v>32</v>
-      </c>
-      <c r="B10" t="s">
-        <v>33</v>
-      </c>
-      <c r="C10" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="F10" t="s">
-        <v>34</v>
-      </c>
-      <c r="G10" t="s">
-        <v>35</v>
-      </c>
-      <c r="I10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:10">
       <c r="A11" t="s">
-        <v>36</v>
+        <v>54</v>
       </c>
       <c r="B11" t="s">
-        <v>37</v>
-      </c>
-      <c r="C11" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="F11" t="s">
-        <v>38</v>
+        <v>55</v>
+      </c>
+      <c r="C11" t="s">
+        <v>56</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>57</v>
       </c>
       <c r="G11" t="s">
-        <v>39</v>
+        <v>58</v>
       </c>
       <c r="H11" t="s">
-        <v>40</v>
-      </c>
-      <c r="I11">
+        <v>59</v>
+      </c>
+      <c r="I11" t="s">
+        <v>60</v>
+      </c>
+      <c r="J11">
         <v>0.08</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/settings/data/Couple.xlsx
+++ b/settings/data/Couple.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27932"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nep\Desktop\touhou_survivors\settings\data\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5A0BCB1-DC99-42EA-AC4D-9D15237D7ADE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowWidth="24750" windowHeight="12080"/>
+    <workbookView xWindow="1860" yWindow="5280" windowWidth="34155" windowHeight="15345" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Couple" sheetId="1" r:id="rId1"/>
@@ -337,26 +343,20 @@
     <t>sc_marisa|psv_narumi</t>
   </si>
   <si>
-    <t>buff_hp_disposable</t>
-  </si>
-  <si>
     <t>sc</t>
   </si>
   <si>
     <t>atkdep_mana_multiply</t>
+  </si>
+  <si>
+    <t>buff_player_hp_disposable</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
-  <numFmts count="4">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="26">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -386,150 +386,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="10"/>
       <color theme="9"/>
       <name val="宋体"/>
@@ -550,202 +406,22 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="33">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="9">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -753,251 +429,9 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1024,61 +458,17 @@
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
-    <cellStyle name="货币" xfId="2" builtinId="4"/>
-    <cellStyle name="百分比" xfId="3" builtinId="5"/>
-    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
-    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
-    <cellStyle name="超链接" xfId="6" builtinId="8"/>
-    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
-    <cellStyle name="注释" xfId="8" builtinId="10"/>
-    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
-    <cellStyle name="标题" xfId="10" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
-    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="输入" xfId="16" builtinId="20"/>
-    <cellStyle name="输出" xfId="17" builtinId="21"/>
-    <cellStyle name="计算" xfId="18" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
-    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
-    <cellStyle name="汇总" xfId="21" builtinId="25"/>
-    <cellStyle name="好" xfId="22" builtinId="26"/>
-    <cellStyle name="差" xfId="23" builtinId="27"/>
-    <cellStyle name="适中" xfId="24" builtinId="28"/>
-    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
-    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
-    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
-    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
-    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1328,41 +718,40 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
-      <selection/>
+      <pane xSplit="1" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="D24" sqref="D24"/>
+      <selection pane="bottomRight" activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="30.8727272727273" customWidth="1"/>
-    <col min="2" max="2" width="16.2545454545455" customWidth="1"/>
-    <col min="3" max="3" width="87.2727272727273" customWidth="1"/>
-    <col min="4" max="4" width="37.6363636363636" customWidth="1"/>
-    <col min="5" max="5" width="53.3727272727273" customWidth="1"/>
-    <col min="6" max="6" width="26.3727272727273" customWidth="1"/>
+    <col min="1" max="1" width="30.875" customWidth="1"/>
+    <col min="2" max="2" width="16.25" customWidth="1"/>
+    <col min="3" max="3" width="87.25" customWidth="1"/>
+    <col min="4" max="4" width="37.625" customWidth="1"/>
+    <col min="5" max="5" width="53.375" customWidth="1"/>
+    <col min="6" max="6" width="26.375" customWidth="1"/>
     <col min="7" max="7" width="27.5" customWidth="1"/>
     <col min="8" max="8" width="21.5" customWidth="1"/>
     <col min="9" max="9" width="27.5" customWidth="1"/>
-    <col min="10" max="10" width="23.2545454545455" customWidth="1"/>
-    <col min="11" max="11" width="13.7545454545455" customWidth="1"/>
+    <col min="10" max="10" width="23.25" customWidth="1"/>
+    <col min="11" max="11" width="13.75" customWidth="1"/>
     <col min="12" max="12" width="20.5" customWidth="1"/>
-    <col min="13" max="14" width="21.6272727272727" customWidth="1"/>
+    <col min="13" max="14" width="21.625" customWidth="1"/>
     <col min="15" max="15" width="21.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" spans="1:10">
+    <row r="1" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1394,7 +783,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" s="1" customFormat="1" ht="86" spans="1:15">
+    <row r="2" spans="1:15" s="1" customFormat="1" ht="80.25" x14ac:dyDescent="0.15">
       <c r="A2" s="3" t="s">
         <v>3</v>
       </c>
@@ -1431,7 +820,7 @@
       <c r="N2" s="4"/>
       <c r="O2" s="4"/>
     </row>
-    <row r="3" s="1" customFormat="1" spans="1:10">
+    <row r="3" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
         <v>13</v>
       </c>
@@ -1463,7 +852,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="4" spans="1:10">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
         <v>22</v>
       </c>
@@ -1486,7 +875,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:10">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
         <v>28</v>
       </c>
@@ -1503,7 +892,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:10">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
         <v>32</v>
       </c>
@@ -1520,7 +909,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:10">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
         <v>36</v>
       </c>
@@ -1537,7 +926,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:10">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
         <v>40</v>
       </c>
@@ -1554,7 +943,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:10">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
         <v>44</v>
       </c>
@@ -1571,7 +960,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:10">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
         <v>48</v>
       </c>
@@ -1594,7 +983,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:10">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
         <v>54</v>
       </c>
@@ -1608,21 +997,21 @@
         <v>57</v>
       </c>
       <c r="G11" t="s">
+        <v>60</v>
+      </c>
+      <c r="H11" t="s">
         <v>58</v>
       </c>
-      <c r="H11" t="s">
+      <c r="I11" t="s">
         <v>59</v>
-      </c>
-      <c r="I11" t="s">
-        <v>60</v>
       </c>
       <c r="J11">
         <v>0.08</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
--- a/settings/data/Couple.xlsx
+++ b/settings/data/Couple.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28429"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27932"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nep\Desktop\touhou_survivors\settings\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C80EC947-A8CF-42C0-B854-CE0B9DD83192}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5A0BCB1-DC99-42EA-AC4D-9D15237D7ADE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2685" yWindow="5025" windowWidth="31980" windowHeight="15345" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1860" yWindow="5280" windowWidth="34155" windowHeight="15345" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Couple" sheetId="1" r:id="rId1"/>
@@ -33,24 +33,27 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="61">
   <si>
     <t>string</t>
   </si>
   <si>
+    <t>array_str</t>
+  </si>
+  <si>
+    <t>array</t>
+  </si>
+  <si>
+    <t>羁绊ID</t>
+  </si>
+  <si>
+    <t>中文名</t>
+  </si>
+  <si>
     <t>注释</t>
   </si>
   <si>
-    <t>array_str</t>
-  </si>
-  <si>
-    <t>array</t>
-  </si>
-  <si>
-    <t>羁绊ID</t>
-  </si>
-  <si>
-    <t>中文名</t>
+    <t>羁绊成员</t>
   </si>
   <si>
     <r>
@@ -208,6 +211,12 @@
     <t>id</t>
   </si>
   <si>
+    <t>*</t>
+  </si>
+  <si>
+    <t>partment</t>
+  </si>
+  <si>
     <t>creating_routine</t>
   </si>
   <si>
@@ -232,6 +241,15 @@
     <t>灵梦×魔理沙</t>
   </si>
   <si>
+    <t>受击时一定范围消弹，击退周围小范围的敌人。</t>
+  </si>
+  <si>
+    <t>ski_reimu|sc_marisa</t>
+  </si>
+  <si>
+    <t>rou_reimu_marisa1|rou_reimu_marisa2</t>
+  </si>
+  <si>
     <t>hurt</t>
   </si>
   <si>
@@ -241,36 +259,72 @@
     <t>灵梦×早苗</t>
   </si>
   <si>
+    <t>灵梦的符札有概率定身敌人一小段时间。</t>
+  </si>
+  <si>
+    <t>ski_reimu|ski_sanae</t>
+  </si>
+  <si>
     <t>cp_reimu_misumaru</t>
   </si>
   <si>
     <t>灵梦×魅须丸</t>
   </si>
   <si>
+    <t>魅须丸的阴阳玉因到达时限而消失时会爆炸。</t>
+  </si>
+  <si>
+    <t>ski_reimu|ski_misumaru</t>
+  </si>
+  <si>
     <t>cp_marisa_alice</t>
   </si>
   <si>
     <t>魔理沙×爱丽丝</t>
   </si>
   <si>
+    <t>释放符卡时，所有人偶会发射小型魔炮，会瞄准自机前方一定距离，符力消耗越高持续时间越长。</t>
+  </si>
+  <si>
+    <t>sc_marisa|ski_alice</t>
+  </si>
+  <si>
     <t>cp_marisa_patchouli</t>
   </si>
   <si>
     <t>魔理沙×帕秋莉</t>
   </si>
   <si>
+    <t>魔炮消掉弹幕和击破敌人时会掉落增加符力的道具。</t>
+  </si>
+  <si>
+    <t>sc_marisa|psv_patchouli</t>
+  </si>
+  <si>
     <t>cp_alice_patchouli</t>
   </si>
   <si>
     <t>爱丽丝×帕秋莉</t>
   </si>
   <si>
+    <t>爱丽丝的人偶生成时会释放日符，造成AOE伤害；摧毁时会释放月符，生成回复符力的区域。</t>
+  </si>
+  <si>
+    <t>ski_alice|psv_patchouli</t>
+  </si>
+  <si>
     <t>cp_marisa_alice_patchouli</t>
   </si>
   <si>
     <t>三魔女</t>
   </si>
   <si>
+    <t>符卡的符力消耗减半。</t>
+  </si>
+  <si>
+    <t>ski_alice|psv_patchouli|sc_marisa</t>
+  </si>
+  <si>
     <t>buff_mana_cost_forever</t>
   </si>
   <si>
@@ -283,7 +337,10 @@
     <t>魔理沙×成美</t>
   </si>
   <si>
-    <t>buff_hp_disposable</t>
+    <t>释放符卡时，回复等同于消耗符力的1%的血量。</t>
+  </si>
+  <si>
+    <t>sc_marisa|psv_narumi</t>
   </si>
   <si>
     <t>sc</t>
@@ -292,52 +349,7 @@
     <t>atkdep_mana_multiply</t>
   </si>
   <si>
-    <t>array_str</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>羁绊成员1</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>partment</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>ski_reimu|sc_marisa</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>ski_reimu|ski_sanae</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>ski_reimu|ski_misumaru</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>sc_marisa|ski_alice</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>sc_marisa|psv_patchouli</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>ski_alice|psv_patchouli</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>ski_alice|psv_patchouli|sc_marisa</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>sc_marisa|psv_narumi</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>rou_reimu_marisa1|rou_reimu_marisa2</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <t>buff_player_hp_disposable</t>
   </si>
 </sst>
 </file>
@@ -347,6 +359,20 @@
   <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="16"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -386,22 +412,6 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="16"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -435,16 +445,16 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -714,256 +724,293 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N11"/>
+  <dimension ref="A1:O11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="D4" sqref="D4"/>
+      <selection pane="bottomRight" activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="30.875" customWidth="1"/>
     <col min="2" max="2" width="16.25" customWidth="1"/>
-    <col min="3" max="3" width="30.375" customWidth="1"/>
-    <col min="4" max="4" width="53.375" customWidth="1"/>
-    <col min="5" max="5" width="26.375" customWidth="1"/>
-    <col min="6" max="6" width="27.5" customWidth="1"/>
-    <col min="7" max="7" width="21.5" customWidth="1"/>
-    <col min="8" max="8" width="27.5" customWidth="1"/>
-    <col min="9" max="9" width="23.25" customWidth="1"/>
-    <col min="10" max="10" width="13.75" customWidth="1"/>
-    <col min="11" max="11" width="20.5" customWidth="1"/>
-    <col min="12" max="13" width="21.625" customWidth="1"/>
-    <col min="14" max="14" width="21.5" customWidth="1"/>
+    <col min="3" max="3" width="87.25" customWidth="1"/>
+    <col min="4" max="4" width="37.625" customWidth="1"/>
+    <col min="5" max="5" width="53.375" customWidth="1"/>
+    <col min="6" max="6" width="26.375" customWidth="1"/>
+    <col min="7" max="7" width="27.5" customWidth="1"/>
+    <col min="8" max="8" width="21.5" customWidth="1"/>
+    <col min="9" max="9" width="27.5" customWidth="1"/>
+    <col min="10" max="10" width="23.25" customWidth="1"/>
+    <col min="11" max="11" width="13.75" customWidth="1"/>
+    <col min="12" max="12" width="20.5" customWidth="1"/>
+    <col min="13" max="14" width="21.625" customWidth="1"/>
+    <col min="15" max="15" width="21.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" s="1" customFormat="1" ht="80.25" x14ac:dyDescent="0.15">
+      <c r="A2" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="I2" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="J2" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="K2" s="4"/>
+      <c r="L2" s="4"/>
+      <c r="M2" s="4"/>
+      <c r="N2" s="4"/>
+      <c r="O2" s="4"/>
+    </row>
+    <row r="3" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="F4" t="s">
+        <v>27</v>
+      </c>
+      <c r="J4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A5" t="s">
+        <v>28</v>
+      </c>
+      <c r="B5" t="s">
+        <v>29</v>
+      </c>
+      <c r="C5" t="s">
+        <v>30</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="J5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A6" t="s">
+        <v>32</v>
+      </c>
+      <c r="B6" t="s">
+        <v>33</v>
+      </c>
+      <c r="C6" t="s">
+        <v>34</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="J6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A7" t="s">
+        <v>36</v>
+      </c>
+      <c r="B7" t="s">
+        <v>37</v>
+      </c>
+      <c r="C7" t="s">
+        <v>38</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="J7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A8" t="s">
+        <v>40</v>
+      </c>
+      <c r="B8" t="s">
         <v>41</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>3</v>
+      <c r="C8" t="s">
+        <v>42</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="J8">
+        <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:14" s="1" customFormat="1" ht="80.25" x14ac:dyDescent="0.15">
-      <c r="A2" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="H2" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="I2" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="J2" s="3"/>
-      <c r="K2" s="3"/>
-      <c r="L2" s="3"/>
-      <c r="M2" s="3"/>
-      <c r="N2" s="3"/>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A9" t="s">
+        <v>44</v>
+      </c>
+      <c r="B9" t="s">
+        <v>45</v>
+      </c>
+      <c r="C9" t="s">
+        <v>46</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="J9">
+        <v>1</v>
+      </c>
     </row>
-    <row r="3" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>18</v>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A10" t="s">
+        <v>48</v>
+      </c>
+      <c r="B10" t="s">
+        <v>49</v>
+      </c>
+      <c r="C10" t="s">
+        <v>50</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="G10" t="s">
+        <v>52</v>
+      </c>
+      <c r="H10" t="s">
+        <v>53</v>
+      </c>
+      <c r="J10">
+        <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A4" t="s">
-        <v>19</v>
-      </c>
-      <c r="B4" t="s">
-        <v>20</v>
-      </c>
-      <c r="C4" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="D4" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="E4" t="s">
-        <v>21</v>
-      </c>
-      <c r="I4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A5" t="s">
-        <v>22</v>
-      </c>
-      <c r="B5" t="s">
-        <v>23</v>
-      </c>
-      <c r="C5" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="I5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A6" t="s">
-        <v>24</v>
-      </c>
-      <c r="B6" t="s">
-        <v>25</v>
-      </c>
-      <c r="C6" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="I6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A7" t="s">
-        <v>26</v>
-      </c>
-      <c r="B7" t="s">
-        <v>27</v>
-      </c>
-      <c r="C7" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="I7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A8" t="s">
-        <v>28</v>
-      </c>
-      <c r="B8" t="s">
-        <v>29</v>
-      </c>
-      <c r="C8" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="I8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A9" t="s">
-        <v>30</v>
-      </c>
-      <c r="B9" t="s">
-        <v>31</v>
-      </c>
-      <c r="C9" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="I9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A10" t="s">
-        <v>32</v>
-      </c>
-      <c r="B10" t="s">
-        <v>33</v>
-      </c>
-      <c r="C10" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="F10" t="s">
-        <v>34</v>
-      </c>
-      <c r="G10" t="s">
-        <v>35</v>
-      </c>
-      <c r="I10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
-        <v>36</v>
+        <v>54</v>
       </c>
       <c r="B11" t="s">
-        <v>37</v>
-      </c>
-      <c r="C11" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="F11" t="s">
-        <v>38</v>
+        <v>55</v>
+      </c>
+      <c r="C11" t="s">
+        <v>56</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>57</v>
       </c>
       <c r="G11" t="s">
-        <v>39</v>
+        <v>60</v>
       </c>
       <c r="H11" t="s">
-        <v>40</v>
-      </c>
-      <c r="I11">
+        <v>58</v>
+      </c>
+      <c r="I11" t="s">
+        <v>59</v>
+      </c>
+      <c r="J11">
         <v>0.08</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="5" type="noConversion"/>
+  <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
 </worksheet>

--- a/settings/data/Couple.xlsx
+++ b/settings/data/Couple.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27932"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nep\Desktop\touhou_survivors\settings\data\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5A0BCB1-DC99-42EA-AC4D-9D15237D7ADE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1860" yWindow="5280" windowWidth="34155" windowHeight="15345" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="24750" windowHeight="12080"/>
   </bookViews>
   <sheets>
     <sheet name="Couple" sheetId="1" r:id="rId1"/>
@@ -250,7 +244,7 @@
     <t>rou_reimu_marisa1|rou_reimu_marisa2</t>
   </si>
   <si>
-    <t>hurt</t>
+    <t>hurt|hurt</t>
   </si>
   <si>
     <t>cp_reimu_sanae</t>
@@ -343,20 +337,26 @@
     <t>sc_marisa|psv_narumi</t>
   </si>
   <si>
+    <t>buff_player_hp_disposable</t>
+  </si>
+  <si>
     <t>sc</t>
   </si>
   <si>
     <t>atkdep_mana_multiply</t>
-  </si>
-  <si>
-    <t>buff_player_hp_disposable</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
+  <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="24">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -365,24 +365,154 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="16"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="16"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -394,34 +524,214 @@
     </font>
     <font>
       <sz val="10"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
       <color theme="4"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -429,46 +739,329 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
+    <cellStyle name="货币" xfId="2" builtinId="4"/>
+    <cellStyle name="百分比" xfId="3" builtinId="5"/>
+    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
+    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
+    <cellStyle name="超链接" xfId="6" builtinId="8"/>
+    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
+    <cellStyle name="注释" xfId="8" builtinId="10"/>
+    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
+    <cellStyle name="标题" xfId="10" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
+    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="输入" xfId="16" builtinId="20"/>
+    <cellStyle name="输出" xfId="17" builtinId="21"/>
+    <cellStyle name="计算" xfId="18" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
+    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
+    <cellStyle name="汇总" xfId="21" builtinId="25"/>
+    <cellStyle name="好" xfId="22" builtinId="26"/>
+    <cellStyle name="差" xfId="23" builtinId="27"/>
+    <cellStyle name="适中" xfId="24" builtinId="28"/>
+    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
+    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
+    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
+    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
+    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -718,40 +1311,41 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:O11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
+      <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="G11" sqref="G11"/>
+      <selection pane="bottomRight" activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
   <cols>
-    <col min="1" max="1" width="30.875" customWidth="1"/>
-    <col min="2" max="2" width="16.25" customWidth="1"/>
-    <col min="3" max="3" width="87.25" customWidth="1"/>
-    <col min="4" max="4" width="37.625" customWidth="1"/>
-    <col min="5" max="5" width="53.375" customWidth="1"/>
-    <col min="6" max="6" width="26.375" customWidth="1"/>
+    <col min="1" max="1" width="30.8727272727273" customWidth="1"/>
+    <col min="2" max="2" width="16.2545454545455" customWidth="1"/>
+    <col min="3" max="3" width="87.2545454545455" customWidth="1"/>
+    <col min="4" max="4" width="37.6272727272727" customWidth="1"/>
+    <col min="5" max="5" width="53.3727272727273" customWidth="1"/>
+    <col min="6" max="6" width="26.3727272727273" customWidth="1"/>
     <col min="7" max="7" width="27.5" customWidth="1"/>
     <col min="8" max="8" width="21.5" customWidth="1"/>
     <col min="9" max="9" width="27.5" customWidth="1"/>
-    <col min="10" max="10" width="23.25" customWidth="1"/>
-    <col min="11" max="11" width="13.75" customWidth="1"/>
+    <col min="10" max="10" width="23.2545454545455" customWidth="1"/>
+    <col min="11" max="11" width="13.7545454545455" customWidth="1"/>
     <col min="12" max="12" width="20.5" customWidth="1"/>
-    <col min="13" max="14" width="21.625" customWidth="1"/>
+    <col min="13" max="14" width="21.6272727272727" customWidth="1"/>
     <col min="15" max="15" width="21.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="1" s="1" customFormat="1" spans="1:10">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -783,17 +1377,17 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:15" s="1" customFormat="1" ht="80.25" x14ac:dyDescent="0.15">
+    <row r="2" s="1" customFormat="1" ht="86" spans="1:15">
       <c r="A2" s="3" t="s">
         <v>3</v>
       </c>
       <c r="B2" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="D2" s="4" t="s">
         <v>6</v>
       </c>
       <c r="E2" s="4" t="s">
@@ -820,7 +1414,7 @@
       <c r="N2" s="4"/>
       <c r="O2" s="4"/>
     </row>
-    <row r="3" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="3" s="1" customFormat="1" spans="1:10">
       <c r="A3" s="1" t="s">
         <v>13</v>
       </c>
@@ -852,7 +1446,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:10">
       <c r="A4" t="s">
         <v>22</v>
       </c>
@@ -862,10 +1456,10 @@
       <c r="C4" t="s">
         <v>24</v>
       </c>
-      <c r="D4" s="6" t="s">
+      <c r="D4" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="E4" s="6" t="s">
+      <c r="E4" s="5" t="s">
         <v>26</v>
       </c>
       <c r="F4" t="s">
@@ -875,7 +1469,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:10">
       <c r="A5" t="s">
         <v>28</v>
       </c>
@@ -885,14 +1479,14 @@
       <c r="C5" t="s">
         <v>30</v>
       </c>
-      <c r="D5" s="6" t="s">
+      <c r="D5" s="5" t="s">
         <v>31</v>
       </c>
       <c r="J5">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:10">
       <c r="A6" t="s">
         <v>32</v>
       </c>
@@ -902,14 +1496,14 @@
       <c r="C6" t="s">
         <v>34</v>
       </c>
-      <c r="D6" s="6" t="s">
+      <c r="D6" s="5" t="s">
         <v>35</v>
       </c>
       <c r="J6">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:10">
       <c r="A7" t="s">
         <v>36</v>
       </c>
@@ -919,14 +1513,14 @@
       <c r="C7" t="s">
         <v>38</v>
       </c>
-      <c r="D7" s="6" t="s">
+      <c r="D7" s="5" t="s">
         <v>39</v>
       </c>
       <c r="J7">
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:10">
       <c r="A8" t="s">
         <v>40</v>
       </c>
@@ -936,14 +1530,14 @@
       <c r="C8" t="s">
         <v>42</v>
       </c>
-      <c r="D8" s="6" t="s">
+      <c r="D8" s="5" t="s">
         <v>43</v>
       </c>
       <c r="J8">
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:10">
       <c r="A9" t="s">
         <v>44</v>
       </c>
@@ -953,14 +1547,14 @@
       <c r="C9" t="s">
         <v>46</v>
       </c>
-      <c r="D9" s="6" t="s">
+      <c r="D9" s="5" t="s">
         <v>47</v>
       </c>
       <c r="J9">
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:10">
       <c r="A10" t="s">
         <v>48</v>
       </c>
@@ -970,7 +1564,7 @@
       <c r="C10" t="s">
         <v>50</v>
       </c>
-      <c r="D10" s="6" t="s">
+      <c r="D10" s="5" t="s">
         <v>51</v>
       </c>
       <c r="G10" t="s">
@@ -983,7 +1577,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:10">
       <c r="A11" t="s">
         <v>54</v>
       </c>
@@ -993,25 +1587,25 @@
       <c r="C11" t="s">
         <v>56</v>
       </c>
-      <c r="D11" s="6" t="s">
+      <c r="D11" s="5" t="s">
         <v>57</v>
       </c>
       <c r="G11" t="s">
+        <v>58</v>
+      </c>
+      <c r="H11" t="s">
+        <v>59</v>
+      </c>
+      <c r="I11" t="s">
         <v>60</v>
-      </c>
-      <c r="H11" t="s">
-        <v>58</v>
-      </c>
-      <c r="I11" t="s">
-        <v>59</v>
       </c>
       <c r="J11">
         <v>0.08</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/settings/data/Couple.xlsx
+++ b/settings/data/Couple.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27932"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nep\Desktop\touhou_survivors\settings\data\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC3CFFB6-A562-4A51-A690-71130A172753}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowWidth="24750" windowHeight="12080"/>
+    <workbookView xWindow="1485" yWindow="5535" windowWidth="34155" windowHeight="15345" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Couple" sheetId="1" r:id="rId1"/>
@@ -241,9 +247,6 @@
     <t>ski_reimu|sc_marisa</t>
   </si>
   <si>
-    <t>rou_reimu_marisa1|rou_reimu_marisa2</t>
-  </si>
-  <si>
     <t>hurt|hurt</t>
   </si>
   <si>
@@ -344,19 +347,17 @@
   </si>
   <si>
     <t>atkdep_mana_multiply</t>
+  </si>
+  <si>
+    <t>rou_reimu_marisa_attachment1|rou_reimu_marisa_attachment2</t>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
-  <numFmts count="4">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="24">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -369,150 +370,6 @@
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -536,202 +393,30 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="33">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="9">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -739,255 +424,13 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1006,62 +449,21 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
-    <cellStyle name="货币" xfId="2" builtinId="4"/>
-    <cellStyle name="百分比" xfId="3" builtinId="5"/>
-    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
-    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
-    <cellStyle name="超链接" xfId="6" builtinId="8"/>
-    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
-    <cellStyle name="注释" xfId="8" builtinId="10"/>
-    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
-    <cellStyle name="标题" xfId="10" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
-    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="输入" xfId="16" builtinId="20"/>
-    <cellStyle name="输出" xfId="17" builtinId="21"/>
-    <cellStyle name="计算" xfId="18" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
-    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
-    <cellStyle name="汇总" xfId="21" builtinId="25"/>
-    <cellStyle name="好" xfId="22" builtinId="26"/>
-    <cellStyle name="差" xfId="23" builtinId="27"/>
-    <cellStyle name="适中" xfId="24" builtinId="28"/>
-    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
-    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
-    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
-    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
-    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1311,41 +713,40 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
-      <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="G9" sqref="G9"/>
+      <selection pane="bottomRight" activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="30.8727272727273" customWidth="1"/>
-    <col min="2" max="2" width="16.2545454545455" customWidth="1"/>
-    <col min="3" max="3" width="87.2545454545455" customWidth="1"/>
-    <col min="4" max="4" width="37.6272727272727" customWidth="1"/>
-    <col min="5" max="5" width="53.3727272727273" customWidth="1"/>
-    <col min="6" max="6" width="26.3727272727273" customWidth="1"/>
+    <col min="1" max="1" width="30.875" customWidth="1"/>
+    <col min="2" max="2" width="16.25" customWidth="1"/>
+    <col min="3" max="3" width="87.25" customWidth="1"/>
+    <col min="4" max="4" width="37.625" customWidth="1"/>
+    <col min="5" max="5" width="53.375" customWidth="1"/>
+    <col min="6" max="6" width="26.375" customWidth="1"/>
     <col min="7" max="7" width="27.5" customWidth="1"/>
     <col min="8" max="8" width="21.5" customWidth="1"/>
     <col min="9" max="9" width="27.5" customWidth="1"/>
-    <col min="10" max="10" width="23.2545454545455" customWidth="1"/>
-    <col min="11" max="11" width="13.7545454545455" customWidth="1"/>
+    <col min="10" max="10" width="23.25" customWidth="1"/>
+    <col min="11" max="11" width="13.75" customWidth="1"/>
     <col min="12" max="12" width="20.5" customWidth="1"/>
-    <col min="13" max="14" width="21.6272727272727" customWidth="1"/>
+    <col min="13" max="14" width="21.625" customWidth="1"/>
     <col min="15" max="15" width="21.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" spans="1:10">
+    <row r="1" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1377,7 +778,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" s="1" customFormat="1" ht="86" spans="1:15">
+    <row r="2" spans="1:15" s="1" customFormat="1" ht="80.25" x14ac:dyDescent="0.15">
       <c r="A2" s="3" t="s">
         <v>3</v>
       </c>
@@ -1414,7 +815,7 @@
       <c r="N2" s="4"/>
       <c r="O2" s="4"/>
     </row>
-    <row r="3" s="1" customFormat="1" spans="1:10">
+    <row r="3" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
         <v>13</v>
       </c>
@@ -1446,7 +847,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="4" spans="1:10">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
         <v>22</v>
       </c>
@@ -1459,153 +860,153 @@
       <c r="D4" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="E4" s="5" t="s">
+      <c r="E4" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="F4" t="s">
         <v>26</v>
       </c>
-      <c r="F4" t="s">
+      <c r="J4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A5" t="s">
         <v>27</v>
       </c>
-      <c r="J4">
+      <c r="B5" t="s">
+        <v>28</v>
+      </c>
+      <c r="C5" t="s">
+        <v>29</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="J5">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:10">
-      <c r="A5" t="s">
-        <v>28</v>
-      </c>
-      <c r="B5" t="s">
-        <v>29</v>
-      </c>
-      <c r="C5" t="s">
-        <v>30</v>
-      </c>
-      <c r="D5" s="5" t="s">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A6" t="s">
         <v>31</v>
       </c>
-      <c r="J5">
+      <c r="B6" t="s">
+        <v>32</v>
+      </c>
+      <c r="C6" t="s">
+        <v>33</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="J6">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:10">
-      <c r="A6" t="s">
-        <v>32</v>
-      </c>
-      <c r="B6" t="s">
-        <v>33</v>
-      </c>
-      <c r="C6" t="s">
-        <v>34</v>
-      </c>
-      <c r="D6" s="5" t="s">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A7" t="s">
         <v>35</v>
       </c>
-      <c r="J6">
+      <c r="B7" t="s">
+        <v>36</v>
+      </c>
+      <c r="C7" t="s">
+        <v>37</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="J7">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:10">
-      <c r="A7" t="s">
-        <v>36</v>
-      </c>
-      <c r="B7" t="s">
-        <v>37</v>
-      </c>
-      <c r="C7" t="s">
-        <v>38</v>
-      </c>
-      <c r="D7" s="5" t="s">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A8" t="s">
         <v>39</v>
       </c>
-      <c r="J7">
+      <c r="B8" t="s">
+        <v>40</v>
+      </c>
+      <c r="C8" t="s">
+        <v>41</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="J8">
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:10">
-      <c r="A8" t="s">
-        <v>40</v>
-      </c>
-      <c r="B8" t="s">
-        <v>41</v>
-      </c>
-      <c r="C8" t="s">
-        <v>42</v>
-      </c>
-      <c r="D8" s="5" t="s">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A9" t="s">
         <v>43</v>
       </c>
-      <c r="J8">
+      <c r="B9" t="s">
+        <v>44</v>
+      </c>
+      <c r="C9" t="s">
+        <v>45</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="J9">
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:10">
-      <c r="A9" t="s">
-        <v>44</v>
-      </c>
-      <c r="B9" t="s">
-        <v>45</v>
-      </c>
-      <c r="C9" t="s">
-        <v>46</v>
-      </c>
-      <c r="D9" s="5" t="s">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A10" t="s">
         <v>47</v>
       </c>
-      <c r="J9">
+      <c r="B10" t="s">
+        <v>48</v>
+      </c>
+      <c r="C10" t="s">
+        <v>49</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="G10" t="s">
+        <v>51</v>
+      </c>
+      <c r="H10" t="s">
+        <v>52</v>
+      </c>
+      <c r="J10">
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:10">
-      <c r="A10" t="s">
-        <v>48</v>
-      </c>
-      <c r="B10" t="s">
-        <v>49</v>
-      </c>
-      <c r="C10" t="s">
-        <v>50</v>
-      </c>
-      <c r="D10" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="G10" t="s">
-        <v>52</v>
-      </c>
-      <c r="H10" t="s">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A11" t="s">
         <v>53</v>
       </c>
-      <c r="J10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10">
-      <c r="A11" t="s">
+      <c r="B11" t="s">
         <v>54</v>
       </c>
-      <c r="B11" t="s">
+      <c r="C11" t="s">
         <v>55</v>
       </c>
-      <c r="C11" t="s">
+      <c r="D11" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="D11" s="5" t="s">
+      <c r="G11" t="s">
         <v>57</v>
       </c>
-      <c r="G11" t="s">
+      <c r="H11" t="s">
         <v>58</v>
       </c>
-      <c r="H11" t="s">
+      <c r="I11" t="s">
         <v>59</v>
-      </c>
-      <c r="I11" t="s">
-        <v>60</v>
       </c>
       <c r="J11">
         <v>0.08</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>